--- a/docs/qa/revision_sistema_ciclo_1.xlsx
+++ b/docs/qa/revision_sistema_ciclo_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18855" windowHeight="8190"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18855" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -438,6 +438,53 @@
         <a:xfrm>
           <a:off x="5086350" y="571500"/>
           <a:ext cx="5153025" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5476875</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="12192000"/>
+          <a:ext cx="9801225" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="A2:H20"/>
     </sheetView>
   </sheetViews>
@@ -2317,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
